--- a/medicine/Enfance/Martine_Bourre/Martine_Bourre.xlsx
+++ b/medicine/Enfance/Martine_Bourre/Martine_Bourre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martine Bourre (née le 14 mai 1949 à Courbevoie) est une auteure et illustratrice d'ouvrages pour la jeunesse française.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a passé quatre ans aux Arts appliqués Duperré. Elle aime varier les styles et les techniques. Elle utilise les pastels, les gouaches, mais également des matières, avec lesquelles elle réalise collages et volumes. Pour réaliser ses illustrations, elle détourne souvent de leur usage les objets simples du quotidien (graines, tissus, morceaux de pains, etc.[1],[2],[3],[4]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a passé quatre ans aux Arts appliqués Duperré. Elle aime varier les styles et les techniques. Elle utilise les pastels, les gouaches, mais également des matières, avec lesquelles elle réalise collages et volumes. Pour réaliser ses illustrations, elle détourne souvent de leur usage les objets simples du quotidien (graines, tissus, morceaux de pains, etc.).
 </t>
         </is>
       </c>
@@ -544,7 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Auteure et illustratrice
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Reine Irène et les sirènes, L'École des loisirs, 2019.
 Gilou Troubadour, L'École des loisirs, 2017.
 Petite Fourmi, Didier Jeunesse, 2017.
@@ -605,7 +625,43 @@
 Ne dérangez pas les dragons !, 1988.
 La Clé de l'écriture et du dessin, 1988.
 Chez les petits, 1987.
-Illustratrice
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Martine_Bourre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_Bourre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Inuk est amoureux de Carl Norac, Pastel, 2009.
 Rouge gorge : ou comment le feu est venu au monde, de Pierre Delye, Didier Jeunesse, 2009.
 L'est où l'doudou d'Lulu ?, 2009.
@@ -621,7 +677,7 @@
 Un poney pour l’été de Jean Slaughter Doty, Martine Delattre (traducteur), Père Castor, 1999.
 Le Supplice des 24 bisous de Didier Dufresne, Père Castor, 1999.
 Il fera beau demain de Luce Fillol, Père Castor, 1999.
-L'Album de mon poney[5], écrit par Sylvie Baussier, La Martinière Jeunesse, 2006  (ISBN 2-7324-3394-2)
+L'Album de mon poney, écrit par Sylvie Baussier, La Martinière Jeunesse, 2006  (ISBN 2-7324-3394-2)
 </t>
         </is>
       </c>
